--- a/data/pca/factorExposure/factorExposure_2018-08-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-08-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03791735521915397</v>
+        <v>0.02723215808112493</v>
       </c>
       <c r="C2">
-        <v>-0.03891432908541364</v>
+        <v>0.01656347314787197</v>
       </c>
       <c r="D2">
-        <v>-0.009193045976315532</v>
+        <v>0.0214424897712001</v>
       </c>
       <c r="E2">
-        <v>0.05126807147935382</v>
+        <v>-0.01632486740722894</v>
       </c>
       <c r="F2">
-        <v>0.1494627189610841</v>
+        <v>-0.008151320253448708</v>
       </c>
       <c r="G2">
-        <v>-0.06269056723453827</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.08370062653024661</v>
+      </c>
+      <c r="H2">
+        <v>-0.02066293431250472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1212885087248828</v>
+        <v>0.07819985132275663</v>
       </c>
       <c r="C3">
-        <v>-0.01537258137655592</v>
+        <v>-0.01224662197477652</v>
       </c>
       <c r="D3">
-        <v>0.05656300619544646</v>
+        <v>0.02171260359990535</v>
       </c>
       <c r="E3">
-        <v>0.09217553063710372</v>
+        <v>-0.007653107109733444</v>
       </c>
       <c r="F3">
-        <v>0.385025167268758</v>
+        <v>0.04217800489472003</v>
       </c>
       <c r="G3">
-        <v>-0.2025029762046302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.2612818701605749</v>
+      </c>
+      <c r="H3">
+        <v>-0.05105735562878696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05430054594978102</v>
+        <v>0.04792441282395763</v>
       </c>
       <c r="C4">
-        <v>-0.001165666424940501</v>
+        <v>0.00396551836802955</v>
       </c>
       <c r="D4">
-        <v>-0.03574464739808889</v>
+        <v>0.04189383981986552</v>
       </c>
       <c r="E4">
-        <v>0.07171860392593657</v>
+        <v>0.01867240117587895</v>
       </c>
       <c r="F4">
-        <v>0.07713948059517908</v>
+        <v>-0.05039066981419059</v>
       </c>
       <c r="G4">
-        <v>-0.05424536962913419</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.05826669033558415</v>
+      </c>
+      <c r="H4">
+        <v>-0.03141636273055823</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01380690528688034</v>
+        <v>0.0253564448648988</v>
       </c>
       <c r="C6">
-        <v>-0.009381024476684017</v>
+        <v>0.004390832226089971</v>
       </c>
       <c r="D6">
-        <v>0.008810803681858648</v>
+        <v>0.05148306559801508</v>
       </c>
       <c r="E6">
-        <v>0.02216903918849874</v>
+        <v>0.004024713418945615</v>
       </c>
       <c r="F6">
-        <v>0.01469395942483534</v>
+        <v>-0.03167564279739132</v>
       </c>
       <c r="G6">
-        <v>0.0039814593821287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.02092074427702671</v>
+      </c>
+      <c r="H6">
+        <v>-0.05220933283103696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02846166489180273</v>
+        <v>0.02060006294306546</v>
       </c>
       <c r="C7">
-        <v>-0.02486417480345449</v>
+        <v>0.003301082866497197</v>
       </c>
       <c r="D7">
-        <v>0.008879770693269147</v>
+        <v>0.02522177884301902</v>
       </c>
       <c r="E7">
-        <v>0.04701698352124316</v>
+        <v>0.03560439300336549</v>
       </c>
       <c r="F7">
-        <v>0.05847063189967616</v>
+        <v>-0.01016227890228194</v>
       </c>
       <c r="G7">
-        <v>-0.05743850932965104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.03728848479010569</v>
+      </c>
+      <c r="H7">
+        <v>-0.02137509381332784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01896525254709483</v>
+        <v>0.006537717541565532</v>
       </c>
       <c r="C8">
-        <v>0.008133872033109632</v>
+        <v>-0.002192811668845504</v>
       </c>
       <c r="D8">
-        <v>-0.009748740024412998</v>
+        <v>0.0111141989604663</v>
       </c>
       <c r="E8">
-        <v>0.07028619500381962</v>
+        <v>0.01016598431037012</v>
       </c>
       <c r="F8">
-        <v>0.08860588491753699</v>
+        <v>-0.02107211289768312</v>
       </c>
       <c r="G8">
-        <v>-0.0725938970009237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.05974373143878151</v>
+      </c>
+      <c r="H8">
+        <v>-0.01073472473342823</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04570130884897929</v>
+        <v>0.03979463002853798</v>
       </c>
       <c r="C9">
-        <v>0.01149935996778189</v>
+        <v>-0.0004892057048273893</v>
       </c>
       <c r="D9">
-        <v>-0.02948288145317782</v>
+        <v>0.03353085928635376</v>
       </c>
       <c r="E9">
-        <v>0.06945675051175235</v>
+        <v>0.01705396080631271</v>
       </c>
       <c r="F9">
-        <v>0.07189194259115395</v>
+        <v>-0.02573405935668104</v>
       </c>
       <c r="G9">
-        <v>-0.0492516556624105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.06430187920547037</v>
+      </c>
+      <c r="H9">
+        <v>-0.0291205606895432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03964503846934904</v>
+        <v>0.1009692120943874</v>
       </c>
       <c r="C10">
-        <v>0.006682080738467457</v>
+        <v>-0.03138054105278383</v>
       </c>
       <c r="D10">
-        <v>-0.0290170991384422</v>
+        <v>-0.1523869956265292</v>
       </c>
       <c r="E10">
-        <v>-0.1066932330382946</v>
+        <v>-0.008426442998628922</v>
       </c>
       <c r="F10">
-        <v>0.07125521811004258</v>
+        <v>0.04743192471835214</v>
       </c>
       <c r="G10">
-        <v>0.01299250501176812</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02109837011971865</v>
+      </c>
+      <c r="H10">
+        <v>-0.0005559887133577646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0348336014952452</v>
+        <v>0.02146637897489244</v>
       </c>
       <c r="C11">
-        <v>-0.01534917091909624</v>
+        <v>-0.008189671149817543</v>
       </c>
       <c r="D11">
-        <v>-0.001190054821500467</v>
+        <v>0.03686407310236368</v>
       </c>
       <c r="E11">
-        <v>0.03798115555596224</v>
+        <v>-0.005056697152654213</v>
       </c>
       <c r="F11">
-        <v>0.0345573258608743</v>
+        <v>-0.0119927703811879</v>
       </c>
       <c r="G11">
-        <v>-0.02050121362583512</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.0356058438965736</v>
+      </c>
+      <c r="H11">
+        <v>-0.02992488360705081</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04259354552018325</v>
+        <v>0.02972547052351623</v>
       </c>
       <c r="C12">
-        <v>-0.003768568954082221</v>
+        <v>-0.006436486733849064</v>
       </c>
       <c r="D12">
-        <v>-0.008950954304893836</v>
+        <v>0.03825965654377624</v>
       </c>
       <c r="E12">
-        <v>0.04543893843137174</v>
+        <v>0.006391276523122098</v>
       </c>
       <c r="F12">
-        <v>0.01833789688088714</v>
+        <v>-0.01825892213422494</v>
       </c>
       <c r="G12">
-        <v>-0.01460737985116385</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.0156082132521671</v>
+      </c>
+      <c r="H12">
+        <v>-0.0146218041893109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.02191399425525971</v>
+        <v>0.02756576974061889</v>
       </c>
       <c r="C13">
-        <v>-0.033167691241137</v>
+        <v>0.01315324979325926</v>
       </c>
       <c r="D13">
-        <v>-0.004340326391720572</v>
+        <v>0.004066746542216363</v>
       </c>
       <c r="E13">
-        <v>0.01871464542744457</v>
+        <v>-0.01831819718663926</v>
       </c>
       <c r="F13">
-        <v>0.09126714840888819</v>
+        <v>-0.01221969961652398</v>
       </c>
       <c r="G13">
-        <v>-0.04184899558653636</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.07062501337555699</v>
+      </c>
+      <c r="H13">
+        <v>-0.02978574754642559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01322464601820437</v>
+        <v>0.01710390913199432</v>
       </c>
       <c r="C14">
-        <v>-0.003200259207063113</v>
+        <v>0.0004557072521342569</v>
       </c>
       <c r="D14">
-        <v>-0.007526745009847656</v>
+        <v>0.004743396629838313</v>
       </c>
       <c r="E14">
-        <v>0.03669125901744102</v>
+        <v>0.007791941619577741</v>
       </c>
       <c r="F14">
-        <v>0.05750938948861133</v>
+        <v>-0.01649527612247612</v>
       </c>
       <c r="G14">
-        <v>-0.0681900742263086</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04683051239694692</v>
+      </c>
+      <c r="H14">
+        <v>0.01553272099410219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02583481960142483</v>
+        <v>0.02257917977029146</v>
       </c>
       <c r="C16">
-        <v>-0.01407308924079655</v>
+        <v>-0.008605627372641712</v>
       </c>
       <c r="D16">
-        <v>-0.00351424798996109</v>
+        <v>0.03321716650477293</v>
       </c>
       <c r="E16">
-        <v>0.03574343981304522</v>
+        <v>2.110670463135349e-05</v>
       </c>
       <c r="F16">
-        <v>0.0410676088343809</v>
+        <v>-0.01637886759613346</v>
       </c>
       <c r="G16">
-        <v>-0.02508942149563271</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.03273399081063098</v>
+      </c>
+      <c r="H16">
+        <v>-0.02340486990061948</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04267187472945117</v>
+        <v>0.03443089769579902</v>
       </c>
       <c r="C19">
-        <v>-0.01490478723401798</v>
+        <v>-0.0002414917618883415</v>
       </c>
       <c r="D19">
-        <v>0.0005974866905176163</v>
+        <v>0.01571955638033132</v>
       </c>
       <c r="E19">
-        <v>0.05088563486885438</v>
+        <v>-0.001266188094995189</v>
       </c>
       <c r="F19">
-        <v>0.1051358867660337</v>
+        <v>-0.02336970032793055</v>
       </c>
       <c r="G19">
-        <v>-0.05224314987075933</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.07710394665618338</v>
+      </c>
+      <c r="H19">
+        <v>-0.04078760087094265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001666434833945728</v>
+        <v>0.01034429802233451</v>
       </c>
       <c r="C20">
-        <v>-0.00972981477429357</v>
+        <v>0.006409509899828006</v>
       </c>
       <c r="D20">
-        <v>-0.01441076734926275</v>
+        <v>0.004914239329278301</v>
       </c>
       <c r="E20">
-        <v>0.04081678698111726</v>
+        <v>5.309850431635581e-05</v>
       </c>
       <c r="F20">
-        <v>0.05634225979008438</v>
+        <v>-0.01206616730143703</v>
       </c>
       <c r="G20">
-        <v>-0.07373750215347763</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05275254474755553</v>
+      </c>
+      <c r="H20">
+        <v>0.008044518687339916</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.000741464453284957</v>
+        <v>0.01940927761754043</v>
       </c>
       <c r="C21">
-        <v>0.002657974636719343</v>
+        <v>0.006692874031736256</v>
       </c>
       <c r="D21">
-        <v>0.01263561428558989</v>
+        <v>0.008717687429970044</v>
       </c>
       <c r="E21">
-        <v>0.04020615832867352</v>
+        <v>0.01189905551133863</v>
       </c>
       <c r="F21">
-        <v>0.06234071414695534</v>
+        <v>-0.00670670016550939</v>
       </c>
       <c r="G21">
-        <v>-0.0272948836828637</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.06580243437893846</v>
+      </c>
+      <c r="H21">
+        <v>-0.00809100126510998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03255655539478524</v>
+        <v>0.02070475804335625</v>
       </c>
       <c r="C24">
-        <v>-0.01434377858373564</v>
+        <v>-0.003143555674336765</v>
       </c>
       <c r="D24">
-        <v>-0.009879955968926605</v>
+        <v>0.03362020794458633</v>
       </c>
       <c r="E24">
-        <v>0.02198656523807289</v>
+        <v>-0.0002326400195027447</v>
       </c>
       <c r="F24">
-        <v>0.03541203122734547</v>
+        <v>-0.01064129116415526</v>
       </c>
       <c r="G24">
-        <v>-0.01922589368843142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02924644529630682</v>
+      </c>
+      <c r="H24">
+        <v>-0.02745777226699139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03114937226798188</v>
+        <v>0.02978966514364843</v>
       </c>
       <c r="C25">
-        <v>-0.005436185568643902</v>
+        <v>-0.0009680648237192871</v>
       </c>
       <c r="D25">
-        <v>-0.001925777658984022</v>
+        <v>0.03323221178576009</v>
       </c>
       <c r="E25">
-        <v>0.04150296225207535</v>
+        <v>0.001441824785274792</v>
       </c>
       <c r="F25">
-        <v>0.03459677703596926</v>
+        <v>-0.01739581328236306</v>
       </c>
       <c r="G25">
-        <v>-0.004375959344642499</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.03390604768849349</v>
+      </c>
+      <c r="H25">
+        <v>-0.02964224281177658</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02264393897037286</v>
+        <v>0.02067596293011748</v>
       </c>
       <c r="C26">
-        <v>-0.02624940720737814</v>
+        <v>0.01679291434480579</v>
       </c>
       <c r="D26">
-        <v>0.01869395050469744</v>
+        <v>0.003080020443063715</v>
       </c>
       <c r="E26">
-        <v>0.03785195552410548</v>
+        <v>-0.007468555102646468</v>
       </c>
       <c r="F26">
-        <v>0.05944488276609442</v>
+        <v>-0.001724035591650772</v>
       </c>
       <c r="G26">
-        <v>-0.0316793069899009</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03913199759138085</v>
+      </c>
+      <c r="H26">
+        <v>0.001685602282621485</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0714330624228136</v>
+        <v>0.027733072605099</v>
       </c>
       <c r="C27">
-        <v>-0.01337271100297863</v>
+        <v>-0.01066235774407324</v>
       </c>
       <c r="D27">
-        <v>-0.04933499014669877</v>
+        <v>0.01757772975728974</v>
       </c>
       <c r="E27">
-        <v>0.05334764212822261</v>
+        <v>0.005167351797625381</v>
       </c>
       <c r="F27">
-        <v>0.05476291198817463</v>
+        <v>-0.0219680449440118</v>
       </c>
       <c r="G27">
-        <v>-0.04958203050803505</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.02698820522713046</v>
+      </c>
+      <c r="H27">
+        <v>0.002353993006366578</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05809499640580045</v>
+        <v>0.151204330301057</v>
       </c>
       <c r="C28">
-        <v>0.01865084316084198</v>
+        <v>-0.03364550172499507</v>
       </c>
       <c r="D28">
-        <v>-0.05352080028005138</v>
+        <v>-0.223592108566194</v>
       </c>
       <c r="E28">
-        <v>-0.1657411931735651</v>
+        <v>-0.006267465468913825</v>
       </c>
       <c r="F28">
-        <v>0.08737281151891899</v>
+        <v>0.05374491507670983</v>
       </c>
       <c r="G28">
-        <v>-0.0167028542341252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.008044346481531609</v>
+      </c>
+      <c r="H28">
+        <v>0.01755863072990777</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02196030589109143</v>
+        <v>0.02145995891509784</v>
       </c>
       <c r="C29">
-        <v>0.002464441650987671</v>
+        <v>-0.001505204131616143</v>
       </c>
       <c r="D29">
-        <v>-0.01257184049186896</v>
+        <v>0.00802982224186102</v>
       </c>
       <c r="E29">
-        <v>0.05152110665914356</v>
+        <v>0.009364382322193356</v>
       </c>
       <c r="F29">
-        <v>0.0454320839730239</v>
+        <v>-0.01903474600997332</v>
       </c>
       <c r="G29">
-        <v>-0.06048377732482973</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.0414756002907206</v>
+      </c>
+      <c r="H29">
+        <v>0.01689333107484923</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.09059601125224659</v>
+        <v>0.05253617113585261</v>
       </c>
       <c r="C30">
-        <v>-0.0447705726728718</v>
+        <v>0.004674186229713884</v>
       </c>
       <c r="D30">
-        <v>-0.03202592424513295</v>
+        <v>0.06680831906619986</v>
       </c>
       <c r="E30">
-        <v>0.08471922995752762</v>
+        <v>-0.03654285856986834</v>
       </c>
       <c r="F30">
-        <v>0.07680653433655188</v>
+        <v>-0.04986837910304662</v>
       </c>
       <c r="G30">
-        <v>-0.03918284345178667</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.07369001341122605</v>
+      </c>
+      <c r="H30">
+        <v>-0.04076081530485731</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06453127169604515</v>
+        <v>0.05508962861187339</v>
       </c>
       <c r="C31">
-        <v>-0.04447997485609475</v>
+        <v>-0.01504010365183276</v>
       </c>
       <c r="D31">
-        <v>0.002655628431407057</v>
+        <v>0.02891653277780049</v>
       </c>
       <c r="E31">
-        <v>0.04005222929848269</v>
+        <v>-0.009714056756380349</v>
       </c>
       <c r="F31">
-        <v>0.03660829612462942</v>
+        <v>-0.01558406922151424</v>
       </c>
       <c r="G31">
-        <v>-0.07903870257696227</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02782497504621085</v>
+      </c>
+      <c r="H31">
+        <v>0.01419944946559611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01947333617862121</v>
+        <v>0.01165922282759181</v>
       </c>
       <c r="C32">
-        <v>-0.001517914074007383</v>
+        <v>-0.01399247792078139</v>
       </c>
       <c r="D32">
-        <v>-0.01369422469574778</v>
+        <v>0.0033167990154401</v>
       </c>
       <c r="E32">
-        <v>0.07589052395231319</v>
+        <v>0.0185624675827598</v>
       </c>
       <c r="F32">
-        <v>0.05833207377738021</v>
+        <v>-0.04332111870991317</v>
       </c>
       <c r="G32">
-        <v>-0.04430538185296539</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.05536966936462606</v>
+      </c>
+      <c r="H32">
+        <v>-0.04470087900675955</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05414708425619762</v>
+        <v>0.03967898442783668</v>
       </c>
       <c r="C33">
-        <v>-0.03238462783344642</v>
+        <v>-0.001407391167736115</v>
       </c>
       <c r="D33">
-        <v>0.02213635258080198</v>
+        <v>0.03002878825131004</v>
       </c>
       <c r="E33">
-        <v>0.06896390453190394</v>
+        <v>-0.02550207206797103</v>
       </c>
       <c r="F33">
-        <v>0.08612183867602083</v>
+        <v>-0.002705398077377622</v>
       </c>
       <c r="G33">
-        <v>-0.04954980952514371</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.06446626721532794</v>
+      </c>
+      <c r="H33">
+        <v>-0.01604701334643882</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03437535186947181</v>
+        <v>0.02700896074242915</v>
       </c>
       <c r="C34">
-        <v>-0.01353136485384562</v>
+        <v>-0.01713753532368918</v>
       </c>
       <c r="D34">
-        <v>-0.01172103858588793</v>
+        <v>0.03472314716457024</v>
       </c>
       <c r="E34">
-        <v>0.04555013694906109</v>
+        <v>0.005291483920430055</v>
       </c>
       <c r="F34">
-        <v>0.04651113464623625</v>
+        <v>-0.01818208572681929</v>
       </c>
       <c r="G34">
-        <v>-0.01540972748736795</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02920419583056712</v>
+      </c>
+      <c r="H34">
+        <v>-0.02467233414655587</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01430096467109915</v>
+        <v>0.02196926911659228</v>
       </c>
       <c r="C36">
-        <v>-0.0004385105408204281</v>
+        <v>0.003286986898287536</v>
       </c>
       <c r="D36">
-        <v>-0.006509296039653409</v>
+        <v>-0.000982968522999717</v>
       </c>
       <c r="E36">
-        <v>0.02754588120247502</v>
+        <v>0.002155388685649131</v>
       </c>
       <c r="F36">
-        <v>0.02674991876131697</v>
+        <v>-0.006932261204747974</v>
       </c>
       <c r="G36">
-        <v>-0.03228413763396878</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02261639031610989</v>
+      </c>
+      <c r="H36">
+        <v>0.003537954094899812</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.002178108649329344</v>
+        <v>0.02166303419999691</v>
       </c>
       <c r="C38">
-        <v>0.0197811469158514</v>
+        <v>-0.01629832361820127</v>
       </c>
       <c r="D38">
-        <v>0.008336806065306174</v>
+        <v>0.001740790767233593</v>
       </c>
       <c r="E38">
-        <v>-0.002950239375221693</v>
+        <v>0.005168769475051501</v>
       </c>
       <c r="F38">
-        <v>0.02249670291188027</v>
+        <v>-0.008771763199060608</v>
       </c>
       <c r="G38">
-        <v>0.01071221833584212</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02993274702362866</v>
+      </c>
+      <c r="H38">
+        <v>-0.02304332077637663</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04047600457313804</v>
+        <v>0.01981008475564529</v>
       </c>
       <c r="C39">
-        <v>-0.0310777571520619</v>
+        <v>-0.0008067444235549672</v>
       </c>
       <c r="D39">
-        <v>-0.009887190110807428</v>
+        <v>0.07463934485237315</v>
       </c>
       <c r="E39">
-        <v>0.05061150936122323</v>
+        <v>-0.005895586744552418</v>
       </c>
       <c r="F39">
-        <v>0.05346561541311137</v>
+        <v>-0.0236954614168758</v>
       </c>
       <c r="G39">
-        <v>-0.01244828984827765</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.05568030824722455</v>
+      </c>
+      <c r="H39">
+        <v>-0.05388108082048609</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03212412703922018</v>
+        <v>0.03431189851777574</v>
       </c>
       <c r="C40">
-        <v>-0.06034066932792475</v>
+        <v>-0.001861011424008672</v>
       </c>
       <c r="D40">
-        <v>-0.01543225327161716</v>
+        <v>0.01884543160366587</v>
       </c>
       <c r="E40">
-        <v>0.03960301121847833</v>
+        <v>-0.02261842746279928</v>
       </c>
       <c r="F40">
-        <v>0.09286887330674826</v>
+        <v>-0.0265656497323901</v>
       </c>
       <c r="G40">
-        <v>-0.05197203929824434</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.05144273662984713</v>
+      </c>
+      <c r="H40">
+        <v>-0.04859987442222447</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.001177054462362516</v>
+        <v>0.01272430693171829</v>
       </c>
       <c r="C41">
-        <v>0.0004376557492675841</v>
+        <v>-0.0005156309557475993</v>
       </c>
       <c r="D41">
-        <v>0.003229296484319292</v>
+        <v>-0.01264956568802227</v>
       </c>
       <c r="E41">
-        <v>0.01371489865601138</v>
+        <v>-0.0006711575107819785</v>
       </c>
       <c r="F41">
-        <v>0.005531774719551935</v>
+        <v>-0.001220606879559818</v>
       </c>
       <c r="G41">
-        <v>-0.05400463862356386</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.00819790401292618</v>
+      </c>
+      <c r="H41">
+        <v>0.01596712804490722</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.385730241789949</v>
+        <v>0.1952736377199561</v>
       </c>
       <c r="C42">
-        <v>0.1271788666012635</v>
+        <v>0.07527332980101287</v>
       </c>
       <c r="D42">
-        <v>0.8585610081895879</v>
+        <v>0.3853829604823101</v>
       </c>
       <c r="E42">
-        <v>-0.1703836504041043</v>
+        <v>-0.1520774673086185</v>
       </c>
       <c r="F42">
-        <v>-0.1763915198371094</v>
+        <v>0.8571924368457503</v>
       </c>
       <c r="G42">
-        <v>-0.04795036717219479</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.1735836210770914</v>
+      </c>
+      <c r="H42">
+        <v>0.01607962899850146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.006056086842291255</v>
+        <v>0.01183868066818831</v>
       </c>
       <c r="C43">
-        <v>-0.003751056482280591</v>
+        <v>0.001500997923210267</v>
       </c>
       <c r="D43">
-        <v>0.01500549691289852</v>
+        <v>-0.01541371794923592</v>
       </c>
       <c r="E43">
-        <v>0.01815407357972112</v>
+        <v>-0.007403798491961927</v>
       </c>
       <c r="F43">
-        <v>0.0223499520099603</v>
+        <v>0.009373309282042724</v>
       </c>
       <c r="G43">
-        <v>-0.05228241068671831</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01584485178419823</v>
+      </c>
+      <c r="H43">
+        <v>0.01039604419642162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01988853396724896</v>
+        <v>0.01449844482681134</v>
       </c>
       <c r="C44">
-        <v>-0.01196608650864765</v>
+        <v>-0.0004309397500080331</v>
       </c>
       <c r="D44">
-        <v>0.02501116687642199</v>
+        <v>0.02474093535679994</v>
       </c>
       <c r="E44">
-        <v>0.0776005765427539</v>
+        <v>-0.001262983327001092</v>
       </c>
       <c r="F44">
-        <v>0.1580667503946799</v>
+        <v>0.007063620675709517</v>
       </c>
       <c r="G44">
-        <v>-0.1745117747143501</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.08618514762177812</v>
+      </c>
+      <c r="H44">
+        <v>-0.01849092941179211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02086307611668805</v>
+        <v>0.01977479572742505</v>
       </c>
       <c r="C46">
-        <v>-0.0129460087514562</v>
+        <v>0.003145835190492413</v>
       </c>
       <c r="D46">
-        <v>0.009069887986637092</v>
+        <v>0.01474303786684546</v>
       </c>
       <c r="E46">
-        <v>0.06271214792833985</v>
+        <v>-0.001815363115001778</v>
       </c>
       <c r="F46">
-        <v>0.05650390479851534</v>
+        <v>-0.01840437354438697</v>
       </c>
       <c r="G46">
-        <v>-0.06206443556073574</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05665192573095252</v>
+      </c>
+      <c r="H46">
+        <v>0.01372786270742727</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.10050375167193</v>
+        <v>0.07593472404060003</v>
       </c>
       <c r="C47">
-        <v>-0.03080004701885111</v>
+        <v>-0.0304676961441423</v>
       </c>
       <c r="D47">
-        <v>-0.01937613511284898</v>
+        <v>0.04184134779253967</v>
       </c>
       <c r="E47">
-        <v>0.03896597530244191</v>
+        <v>-0.004822336975335578</v>
       </c>
       <c r="F47">
-        <v>0.001846481060055511</v>
+        <v>-0.0252142960788462</v>
       </c>
       <c r="G47">
-        <v>-0.08325481614835165</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.005766008741367299</v>
+      </c>
+      <c r="H47">
+        <v>0.03179682565721989</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01638334970700114</v>
+        <v>0.02260314557459439</v>
       </c>
       <c r="C48">
-        <v>-0.01017269496194218</v>
+        <v>-0.006925201564346106</v>
       </c>
       <c r="D48">
-        <v>0.003656872849004192</v>
+        <v>0.004766183205961167</v>
       </c>
       <c r="E48">
-        <v>0.03613786929509643</v>
+        <v>-0.00276678447745929</v>
       </c>
       <c r="F48">
-        <v>0.04196688420721449</v>
+        <v>-0.009712359204775945</v>
       </c>
       <c r="G48">
-        <v>-0.01866705138105817</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.03021651429491359</v>
+      </c>
+      <c r="H48">
+        <v>-0.001566432286933725</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09219052592690546</v>
+        <v>0.07250877714882235</v>
       </c>
       <c r="C50">
-        <v>-0.03755554903249825</v>
+        <v>-0.02704946134405642</v>
       </c>
       <c r="D50">
-        <v>-0.005064484140022392</v>
+        <v>0.04682175755390103</v>
       </c>
       <c r="E50">
-        <v>0.06142411819590613</v>
+        <v>0.00920498776053463</v>
       </c>
       <c r="F50">
-        <v>0.03011050327650045</v>
+        <v>-0.02237885803052292</v>
       </c>
       <c r="G50">
-        <v>-0.03924367867795148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.02531867598800342</v>
+      </c>
+      <c r="H50">
+        <v>0.02462563754174435</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02112761622923592</v>
+        <v>0.02031155493187735</v>
       </c>
       <c r="C51">
-        <v>-0.01669719560582762</v>
+        <v>0.0006686598893707539</v>
       </c>
       <c r="D51">
-        <v>0.01310354216977766</v>
+        <v>-0.007518632622367515</v>
       </c>
       <c r="E51">
-        <v>0.0184555975720468</v>
+        <v>-0.006970684459482243</v>
       </c>
       <c r="F51">
-        <v>0.1383701067414353</v>
+        <v>0.01091719877442691</v>
       </c>
       <c r="G51">
-        <v>-0.06353118747664571</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.0723165498714918</v>
+      </c>
+      <c r="H51">
+        <v>-0.02647502679557313</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.103155478611607</v>
+        <v>0.09059389914800686</v>
       </c>
       <c r="C53">
-        <v>-0.04459749135950777</v>
+        <v>-0.03614255790971128</v>
       </c>
       <c r="D53">
-        <v>-0.02231858999046689</v>
+        <v>0.0791681182415386</v>
       </c>
       <c r="E53">
-        <v>0.05440042205054462</v>
+        <v>-0.002941987493953269</v>
       </c>
       <c r="F53">
-        <v>-0.06270184130495975</v>
+        <v>-0.05309930808211116</v>
       </c>
       <c r="G53">
-        <v>-0.027404336673289</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.05126011854252611</v>
+      </c>
+      <c r="H53">
+        <v>0.04110567613839017</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01636701784086476</v>
+        <v>0.02487674056503713</v>
       </c>
       <c r="C54">
-        <v>-0.001515584936438676</v>
+        <v>-0.01157525530992786</v>
       </c>
       <c r="D54">
-        <v>-0.01561024128435806</v>
+        <v>-0.01673832122569135</v>
       </c>
       <c r="E54">
-        <v>0.03452266163273323</v>
+        <v>0.006144285959744614</v>
       </c>
       <c r="F54">
-        <v>0.05849396116094906</v>
+        <v>-0.008829407041585144</v>
       </c>
       <c r="G54">
-        <v>-0.08534894759073146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03862306271175232</v>
+      </c>
+      <c r="H54">
+        <v>0.01419421868118925</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1006971346118465</v>
+        <v>0.076356416161643</v>
       </c>
       <c r="C55">
-        <v>-0.009347388211138214</v>
+        <v>-0.03146984394475681</v>
       </c>
       <c r="D55">
-        <v>-0.02465791064378591</v>
+        <v>0.07671667552590472</v>
       </c>
       <c r="E55">
-        <v>0.05526489738840801</v>
+        <v>0.008186726611989083</v>
       </c>
       <c r="F55">
-        <v>-0.05272310776483835</v>
+        <v>-0.04256834995654724</v>
       </c>
       <c r="G55">
-        <v>-0.05433715055106806</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.02854512514767397</v>
+      </c>
+      <c r="H55">
+        <v>0.04850205131807509</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1462414697744681</v>
+        <v>0.1264390339169929</v>
       </c>
       <c r="C56">
-        <v>-0.05224322879819932</v>
+        <v>-0.05655477758313487</v>
       </c>
       <c r="D56">
-        <v>-0.0824985548624977</v>
+        <v>0.1000677637851847</v>
       </c>
       <c r="E56">
-        <v>0.05906233976711607</v>
+        <v>-0.0002126452742114033</v>
       </c>
       <c r="F56">
-        <v>-0.1393667624541029</v>
+        <v>-0.08490625994577536</v>
       </c>
       <c r="G56">
-        <v>0.02750951856738131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.08917676342884717</v>
+      </c>
+      <c r="H56">
+        <v>0.03395382966589772</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.042815761334659</v>
+        <v>0.03967279433541259</v>
       </c>
       <c r="C57">
-        <v>-0.0296705787445772</v>
+        <v>0.009820257860828158</v>
       </c>
       <c r="D57">
-        <v>0.007033423879887191</v>
+        <v>0.02688095794454625</v>
       </c>
       <c r="E57">
-        <v>0.007358012773504329</v>
+        <v>-0.01177850289616762</v>
       </c>
       <c r="F57">
-        <v>0.06476027284048674</v>
+        <v>-0.01596306012874588</v>
       </c>
       <c r="G57">
-        <v>-0.04800391616941455</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.06160672706331936</v>
+      </c>
+      <c r="H57">
+        <v>-0.01348606439750132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1964137915362375</v>
+        <v>0.141367972400968</v>
       </c>
       <c r="C58">
-        <v>-0.09410135182463476</v>
+        <v>-0.04118739305826432</v>
       </c>
       <c r="D58">
-        <v>0.03995118650655709</v>
+        <v>0.1333996773553159</v>
       </c>
       <c r="E58">
-        <v>0.2274812905903368</v>
+        <v>-0.1169927654994411</v>
       </c>
       <c r="F58">
-        <v>0.2300932704611456</v>
+        <v>0.03352211261990363</v>
       </c>
       <c r="G58">
-        <v>-0.0008678574761028726</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.7057062960621221</v>
+      </c>
+      <c r="H58">
+        <v>0.5078430833116793</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05648604326391583</v>
+        <v>0.1568723397153485</v>
       </c>
       <c r="C59">
-        <v>-0.00667097055946449</v>
+        <v>-0.04129855152012751</v>
       </c>
       <c r="D59">
-        <v>-0.0684465404114106</v>
+        <v>-0.2201344009044136</v>
       </c>
       <c r="E59">
-        <v>-0.1317523272944626</v>
+        <v>-0.02487095262199651</v>
       </c>
       <c r="F59">
-        <v>0.09360497278358551</v>
+        <v>0.03644109348327957</v>
       </c>
       <c r="G59">
-        <v>0.01793931920983005</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.01398790893986064</v>
+      </c>
+      <c r="H59">
+        <v>-0.0175022986716798</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1640818593196678</v>
+        <v>0.1729640863540761</v>
       </c>
       <c r="C60">
-        <v>-0.0726047834334628</v>
+        <v>-0.03759273363843575</v>
       </c>
       <c r="D60">
-        <v>0.01146214139095467</v>
+        <v>0.02421525786306154</v>
       </c>
       <c r="E60">
-        <v>0.02077957441343085</v>
+        <v>-0.05386696385838722</v>
       </c>
       <c r="F60">
-        <v>0.173783915274623</v>
+        <v>-0.03298591962320011</v>
       </c>
       <c r="G60">
-        <v>0.33114336309264</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.1181289669014064</v>
+      </c>
+      <c r="H60">
+        <v>-0.3890214385283631</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.022197044031824</v>
+        <v>0.02136524140049302</v>
       </c>
       <c r="C61">
-        <v>-0.00497705055158269</v>
+        <v>-0.006113543171399239</v>
       </c>
       <c r="D61">
-        <v>-0.0004535592597367348</v>
+        <v>0.04279988243699335</v>
       </c>
       <c r="E61">
-        <v>0.02532124666009489</v>
+        <v>0.001079340842661647</v>
       </c>
       <c r="F61">
-        <v>0.02823768512527736</v>
+        <v>-0.01852454608994224</v>
       </c>
       <c r="G61">
-        <v>-0.008285899942549252</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.03375408800518826</v>
+      </c>
+      <c r="H61">
+        <v>-0.03826091147032636</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01626815869183717</v>
+        <v>0.0129996050667431</v>
       </c>
       <c r="C63">
-        <v>-0.01000622608679519</v>
+        <v>0.002077096054915987</v>
       </c>
       <c r="D63">
-        <v>-0.0006436617290730164</v>
+        <v>0.01203539356275696</v>
       </c>
       <c r="E63">
-        <v>0.04393502559231002</v>
+        <v>0.001754680583583643</v>
       </c>
       <c r="F63">
-        <v>0.003688375349446908</v>
+        <v>-0.01599066314004616</v>
       </c>
       <c r="G63">
-        <v>-0.04123456562361972</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.0164988963000617</v>
+      </c>
+      <c r="H63">
+        <v>0.01359635584649878</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03925651120458076</v>
+        <v>0.04236173294982965</v>
       </c>
       <c r="C64">
-        <v>0.01657658792834761</v>
+        <v>-0.01067208186238528</v>
       </c>
       <c r="D64">
-        <v>-0.01741475193244088</v>
+        <v>0.03962124376842958</v>
       </c>
       <c r="E64">
-        <v>0.04152683832552048</v>
+        <v>0.008371481550182632</v>
       </c>
       <c r="F64">
-        <v>0.02131668314669546</v>
+        <v>-0.01026575135707828</v>
       </c>
       <c r="G64">
-        <v>-0.0621080735256821</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.02010159304540809</v>
+      </c>
+      <c r="H64">
+        <v>-0.02704288807972109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01442602447049917</v>
+        <v>0.02763256761415126</v>
       </c>
       <c r="C65">
-        <v>-0.008434945380402861</v>
+        <v>0.005373867981738983</v>
       </c>
       <c r="D65">
-        <v>0.00984708432310202</v>
+        <v>0.06053300768087552</v>
       </c>
       <c r="E65">
-        <v>0.01993394882200248</v>
+        <v>0.005781293819127804</v>
       </c>
       <c r="F65">
-        <v>0.01112223382292359</v>
+        <v>-0.03406360057155604</v>
       </c>
       <c r="G65">
-        <v>0.008850314843722141</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.009432662391565783</v>
+      </c>
+      <c r="H65">
+        <v>-0.05780176008906061</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04101730414477339</v>
+        <v>0.02579673284900637</v>
       </c>
       <c r="C66">
-        <v>-0.02599933877046022</v>
+        <v>-0.005134057556428573</v>
       </c>
       <c r="D66">
-        <v>-0.008410657847798092</v>
+        <v>0.08724485063783148</v>
       </c>
       <c r="E66">
-        <v>0.04308272141105116</v>
+        <v>-0.01153621916668834</v>
       </c>
       <c r="F66">
-        <v>0.0491409482837921</v>
+        <v>-0.03884083002581013</v>
       </c>
       <c r="G66">
-        <v>0.001341886197815888</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.04764776423854649</v>
+      </c>
+      <c r="H66">
+        <v>-0.05972217097147091</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01631959444559455</v>
+        <v>0.04350541546875771</v>
       </c>
       <c r="C67">
-        <v>0.01648452622684295</v>
+        <v>-0.0201818572853583</v>
       </c>
       <c r="D67">
-        <v>0.003306052396441343</v>
+        <v>-0.002531282432937165</v>
       </c>
       <c r="E67">
-        <v>-0.02409030362336201</v>
+        <v>0.002783034161780397</v>
       </c>
       <c r="F67">
-        <v>0.02814560102680024</v>
+        <v>-0.01295245713489804</v>
       </c>
       <c r="G67">
-        <v>0.01835467337487139</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01671543852726436</v>
+      </c>
+      <c r="H67">
+        <v>-0.03408268329070444</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07257084555294348</v>
+        <v>0.1610837112613781</v>
       </c>
       <c r="C68">
-        <v>0.01074268823663357</v>
+        <v>-0.02218788327128956</v>
       </c>
       <c r="D68">
-        <v>-0.07788812838603108</v>
+        <v>-0.2163390356436014</v>
       </c>
       <c r="E68">
-        <v>-0.1766504900986451</v>
+        <v>-0.02027707600282956</v>
       </c>
       <c r="F68">
-        <v>0.07979094996956487</v>
+        <v>0.05680572339647058</v>
       </c>
       <c r="G68">
-        <v>0.0415778247903859</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01411415067543109</v>
+      </c>
+      <c r="H68">
+        <v>0.04043266596322656</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07294574694378175</v>
+        <v>0.05839244928707047</v>
       </c>
       <c r="C69">
-        <v>-0.03174354193696918</v>
+        <v>-0.02843641341770141</v>
       </c>
       <c r="D69">
-        <v>-0.02300716763284332</v>
+        <v>0.03965034441540381</v>
       </c>
       <c r="E69">
-        <v>0.01890996918296486</v>
+        <v>-0.005265894567105034</v>
       </c>
       <c r="F69">
-        <v>0.003207818762874273</v>
+        <v>-0.02927967052833843</v>
       </c>
       <c r="G69">
-        <v>-0.07569848272059009</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.003041154863630667</v>
+      </c>
+      <c r="H69">
+        <v>0.01152472508622434</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.08656599151386547</v>
+        <v>0.1517893260657628</v>
       </c>
       <c r="C71">
-        <v>-0.007323451657796552</v>
+        <v>-0.02947902824042248</v>
       </c>
       <c r="D71">
-        <v>-0.06715622289392317</v>
+        <v>-0.1993583081809181</v>
       </c>
       <c r="E71">
-        <v>-0.2054301210110903</v>
+        <v>-0.02069379816056039</v>
       </c>
       <c r="F71">
-        <v>0.08883143721818844</v>
+        <v>0.0656809323104792</v>
       </c>
       <c r="G71">
-        <v>0.004013495254138142</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.008861205378989536</v>
+      </c>
+      <c r="H71">
+        <v>0.02455664950718785</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1069431122423663</v>
+        <v>0.08366326953030305</v>
       </c>
       <c r="C72">
-        <v>-0.04303022484063607</v>
+        <v>-0.04010095306256414</v>
       </c>
       <c r="D72">
-        <v>-0.07367926531748945</v>
+        <v>0.08537145251014336</v>
       </c>
       <c r="E72">
-        <v>0.07032086730313068</v>
+        <v>-0.009228598166279783</v>
       </c>
       <c r="F72">
-        <v>0.1087728755142292</v>
+        <v>-0.08248082182345357</v>
       </c>
       <c r="G72">
-        <v>0.1118166567826951</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.09986489249021688</v>
+      </c>
+      <c r="H72">
+        <v>-0.1599292493721862</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.244923723747198</v>
+        <v>0.2413940781666668</v>
       </c>
       <c r="C73">
-        <v>-0.07870766483400324</v>
+        <v>-0.04987606437184837</v>
       </c>
       <c r="D73">
-        <v>-0.005379432066461785</v>
+        <v>0.06987010717705952</v>
       </c>
       <c r="E73">
-        <v>-0.06197552559953117</v>
+        <v>-0.08061281138942532</v>
       </c>
       <c r="F73">
-        <v>0.296371702080555</v>
+        <v>-0.02924445663712167</v>
       </c>
       <c r="G73">
-        <v>0.481432062720815</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1565110168294526</v>
+      </c>
+      <c r="H73">
+        <v>-0.5175907149646904</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1321833851243559</v>
+        <v>0.1159022734891897</v>
       </c>
       <c r="C74">
-        <v>-0.0392269827742226</v>
+        <v>-0.05181397098173982</v>
       </c>
       <c r="D74">
-        <v>-0.03573561545300797</v>
+        <v>0.1000491881831292</v>
       </c>
       <c r="E74">
-        <v>0.02383266929120418</v>
+        <v>-0.006074840416854969</v>
       </c>
       <c r="F74">
-        <v>-0.08713224124639382</v>
+        <v>-0.06771317202329118</v>
       </c>
       <c r="G74">
-        <v>0.03357251014052855</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.06730193202201562</v>
+      </c>
+      <c r="H74">
+        <v>0.01676290064362197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2196396556362453</v>
+        <v>0.2245725003968375</v>
       </c>
       <c r="C75">
-        <v>-0.1095753675816532</v>
+        <v>-0.1018129850135511</v>
       </c>
       <c r="D75">
-        <v>-0.1104082304750934</v>
+        <v>0.1600762388334358</v>
       </c>
       <c r="E75">
-        <v>0.09293879345905114</v>
+        <v>-0.02442556162559576</v>
       </c>
       <c r="F75">
-        <v>-0.1456841139212685</v>
+        <v>-0.1502864906820551</v>
       </c>
       <c r="G75">
-        <v>-0.02273118801264295</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1398247152564288</v>
+      </c>
+      <c r="H75">
+        <v>0.09166834399622459</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2693589687678732</v>
+        <v>0.1983084903775878</v>
       </c>
       <c r="C76">
-        <v>-0.06027958917127201</v>
+        <v>-0.09497499909331551</v>
       </c>
       <c r="D76">
-        <v>-0.1544849168290946</v>
+        <v>0.1551070037659655</v>
       </c>
       <c r="E76">
-        <v>0.06280777866188429</v>
+        <v>0.01861212889963915</v>
       </c>
       <c r="F76">
-        <v>-0.1845233684851712</v>
+        <v>-0.1521309253052777</v>
       </c>
       <c r="G76">
-        <v>-0.04533087354068582</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1505359339980082</v>
+      </c>
+      <c r="H76">
+        <v>0.1046930577044616</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1460182142327006</v>
+        <v>0.07176770042339278</v>
       </c>
       <c r="C77">
-        <v>-0.02987525141091441</v>
+        <v>-0.009793122017190617</v>
       </c>
       <c r="D77">
-        <v>0.07017238147632683</v>
+        <v>0.07609638973572307</v>
       </c>
       <c r="E77">
-        <v>0.1132959421534899</v>
+        <v>-0.01556536169531531</v>
       </c>
       <c r="F77">
-        <v>0.1942920377416541</v>
+        <v>0.02814071815096551</v>
       </c>
       <c r="G77">
-        <v>-0.1790081081543931</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.1274802160097778</v>
+      </c>
+      <c r="H77">
+        <v>0.06911361020449427</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05672303764165851</v>
+        <v>0.0363861370497812</v>
       </c>
       <c r="C78">
-        <v>-0.02348987098680541</v>
+        <v>-0.01015434927440203</v>
       </c>
       <c r="D78">
-        <v>0.004248194275608074</v>
+        <v>0.06387961927913453</v>
       </c>
       <c r="E78">
-        <v>0.1047746214287198</v>
+        <v>-0.0007343381441033054</v>
       </c>
       <c r="F78">
-        <v>0.04757465063886536</v>
+        <v>-0.03170915336812147</v>
       </c>
       <c r="G78">
-        <v>-0.04930140316611527</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.05917946739335258</v>
+      </c>
+      <c r="H78">
+        <v>-0.03195810913128671</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2115571709149418</v>
+        <v>0.1534677023705412</v>
       </c>
       <c r="C80">
-        <v>0.9333045771795579</v>
+        <v>-0.0462698812657459</v>
       </c>
       <c r="D80">
-        <v>-0.1831558320766465</v>
+        <v>0.04816763770851903</v>
       </c>
       <c r="E80">
-        <v>0.172519373453104</v>
+        <v>0.9628307852515323</v>
       </c>
       <c r="F80">
-        <v>0.02113274291672312</v>
+        <v>0.1429287678158177</v>
       </c>
       <c r="G80">
-        <v>0.04613860262287372</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.08521408329144042</v>
+      </c>
+      <c r="H80">
+        <v>-0.01268730759931842</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1587816451977093</v>
+        <v>0.1474601339119562</v>
       </c>
       <c r="C81">
-        <v>-0.05616090136888427</v>
+        <v>-0.06607129806107684</v>
       </c>
       <c r="D81">
-        <v>-0.1017046392590883</v>
+        <v>0.1008018249235632</v>
       </c>
       <c r="E81">
-        <v>0.04832291692061315</v>
+        <v>0.001557289623095404</v>
       </c>
       <c r="F81">
-        <v>-0.1473630805109224</v>
+        <v>-0.09650743292969298</v>
       </c>
       <c r="G81">
-        <v>0.01155595006954025</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.092813397684572</v>
+      </c>
+      <c r="H81">
+        <v>0.0725198621775342</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05321287850123672</v>
+        <v>0.03542722232997644</v>
       </c>
       <c r="C83">
-        <v>-0.03393414940526965</v>
+        <v>-0.006731582265352022</v>
       </c>
       <c r="D83">
-        <v>0.02967319029409219</v>
+        <v>0.02415362684756708</v>
       </c>
       <c r="E83">
-        <v>0.03013690716501806</v>
+        <v>-0.01409451740520602</v>
       </c>
       <c r="F83">
-        <v>0.05976024129104023</v>
+        <v>-0.006050789746504517</v>
       </c>
       <c r="G83">
-        <v>-0.05052493181954017</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.06013213722867832</v>
+      </c>
+      <c r="H83">
+        <v>-0.01904609816708678</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.238624568048219</v>
+        <v>0.2107931104399642</v>
       </c>
       <c r="C85">
-        <v>-0.08417008588940739</v>
+        <v>-0.08402447815292659</v>
       </c>
       <c r="D85">
-        <v>-0.1177231711690051</v>
+        <v>0.1626316979020632</v>
       </c>
       <c r="E85">
-        <v>0.07272781247753884</v>
+        <v>-0.01698120095522295</v>
       </c>
       <c r="F85">
-        <v>-0.1734608964032174</v>
+        <v>-0.1330299705087628</v>
       </c>
       <c r="G85">
-        <v>-0.06126501777008769</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1534286705671543</v>
+      </c>
+      <c r="H85">
+        <v>0.06560427248797408</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0001680895721039427</v>
+        <v>0.01848992352178384</v>
       </c>
       <c r="C86">
-        <v>0.01201971166179128</v>
+        <v>0.0003414522325774277</v>
       </c>
       <c r="D86">
-        <v>0.01840291868922308</v>
+        <v>0.003455515307833956</v>
       </c>
       <c r="E86">
-        <v>0.04688234408785848</v>
+        <v>-0.01193381171842185</v>
       </c>
       <c r="F86">
-        <v>0.06761554155289846</v>
+        <v>0.009818846643387721</v>
       </c>
       <c r="G86">
-        <v>-0.02880549232511058</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.08352173479222502</v>
+      </c>
+      <c r="H86">
+        <v>-0.04128807400927458</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03388714876168783</v>
+        <v>0.02751507128727843</v>
       </c>
       <c r="C87">
-        <v>-0.007175042321236324</v>
+        <v>-0.002615105516356144</v>
       </c>
       <c r="D87">
-        <v>0.004951826432276841</v>
+        <v>0.0324834136339346</v>
       </c>
       <c r="E87">
-        <v>0.03077002332770523</v>
+        <v>-0.003146298866124473</v>
       </c>
       <c r="F87">
-        <v>0.08787634710507472</v>
+        <v>-0.01111562835272593</v>
       </c>
       <c r="G87">
-        <v>-0.00933215451435547</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.09545635849056441</v>
+      </c>
+      <c r="H87">
+        <v>-0.03189972310075532</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01082991722388334</v>
+        <v>0.03779391507600242</v>
       </c>
       <c r="C88">
-        <v>0.02095496403172032</v>
+        <v>0.01058670940681286</v>
       </c>
       <c r="D88">
-        <v>-0.01889339305294318</v>
+        <v>0.002414099567823682</v>
       </c>
       <c r="E88">
-        <v>-0.0004863610741427971</v>
+        <v>0.009679156517610352</v>
       </c>
       <c r="F88">
-        <v>0.02932521622473819</v>
+        <v>-0.01227744204847838</v>
       </c>
       <c r="G88">
-        <v>-0.07203281953321687</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.003885298316012632</v>
+      </c>
+      <c r="H88">
+        <v>-0.00989234738890875</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1003876503805416</v>
+        <v>0.2448953705000186</v>
       </c>
       <c r="C89">
-        <v>-0.01044675865991209</v>
+        <v>-0.04286604364458322</v>
       </c>
       <c r="D89">
-        <v>-0.08193889637471241</v>
+        <v>-0.3395872576427553</v>
       </c>
       <c r="E89">
-        <v>-0.2704194116490944</v>
+        <v>-0.05145847849133977</v>
       </c>
       <c r="F89">
-        <v>0.1466359000164376</v>
+        <v>0.07342556956987931</v>
       </c>
       <c r="G89">
-        <v>-0.05094667989855179</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.003137612168709912</v>
+      </c>
+      <c r="H89">
+        <v>0.03728873485956087</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09940830671516859</v>
+        <v>0.2001842231526719</v>
       </c>
       <c r="C90">
-        <v>0.03787778027232343</v>
+        <v>-0.03627571625752877</v>
       </c>
       <c r="D90">
-        <v>-0.1046286998878368</v>
+        <v>-0.3013445014059939</v>
       </c>
       <c r="E90">
-        <v>-0.3032149794499251</v>
+        <v>-0.02900435235251531</v>
       </c>
       <c r="F90">
-        <v>0.1128626009226965</v>
+        <v>0.08567578826967483</v>
       </c>
       <c r="G90">
-        <v>-0.02540037712102436</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.04618393031857632</v>
+      </c>
+      <c r="H90">
+        <v>0.05114054294197198</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.291357364287266</v>
+        <v>0.2322306863477963</v>
       </c>
       <c r="C91">
-        <v>-0.09955524393992422</v>
+        <v>-0.1036682306895753</v>
       </c>
       <c r="D91">
-        <v>-0.1144954898389539</v>
+        <v>0.1555729315335958</v>
       </c>
       <c r="E91">
-        <v>0.03907289352744534</v>
+        <v>-0.01606798363645243</v>
       </c>
       <c r="F91">
-        <v>-0.2389439290461648</v>
+        <v>-0.1451347399895423</v>
       </c>
       <c r="G91">
-        <v>-0.002647896847347041</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1837950951581254</v>
+      </c>
+      <c r="H91">
+        <v>0.1296590759360305</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1683905189481304</v>
+        <v>0.2465925222111755</v>
       </c>
       <c r="C92">
-        <v>0.02604153035020702</v>
+        <v>-0.09822457014944712</v>
       </c>
       <c r="D92">
-        <v>-0.1648518441045299</v>
+        <v>-0.2375945050395492</v>
       </c>
       <c r="E92">
-        <v>-0.4597950312700235</v>
+        <v>-0.01232385543888016</v>
       </c>
       <c r="F92">
-        <v>0.008956851983353449</v>
+        <v>0.04696405204798485</v>
       </c>
       <c r="G92">
-        <v>-0.4732870333529239</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.03848440514820747</v>
+      </c>
+      <c r="H92">
+        <v>0.1468777174732216</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1006904151089664</v>
+        <v>0.224465108025044</v>
       </c>
       <c r="C93">
-        <v>0.03033662435907655</v>
+        <v>-0.04827452759534557</v>
       </c>
       <c r="D93">
-        <v>-0.1112913348606686</v>
+        <v>-0.3278284642121269</v>
       </c>
       <c r="E93">
-        <v>-0.4190464600672884</v>
+        <v>-0.04245234309828223</v>
       </c>
       <c r="F93">
-        <v>0.07599102314355878</v>
+        <v>0.1067664182493357</v>
       </c>
       <c r="G93">
-        <v>0.05013122793227118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.05822770380164202</v>
+      </c>
+      <c r="H93">
+        <v>-0.007299187497142956</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2735422092331058</v>
+        <v>0.2531212908048316</v>
       </c>
       <c r="C94">
-        <v>-0.1103659394719378</v>
+        <v>-0.09315565120430999</v>
       </c>
       <c r="D94">
-        <v>-0.1971079167012455</v>
+        <v>0.1369247537957607</v>
       </c>
       <c r="E94">
-        <v>0.04865811181543817</v>
+        <v>-0.03230942390708613</v>
       </c>
       <c r="F94">
-        <v>-0.2633844493216514</v>
+        <v>-0.1840213741815485</v>
       </c>
       <c r="G94">
-        <v>0.06297807565198861</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1891559881714525</v>
+      </c>
+      <c r="H94">
+        <v>0.1350987887480452</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07644908928413156</v>
+        <v>0.05694198986046956</v>
       </c>
       <c r="C95">
-        <v>-0.06076118947625374</v>
+        <v>-0.02991498207272116</v>
       </c>
       <c r="D95">
-        <v>0.04307750047807586</v>
+        <v>0.09440806387925028</v>
       </c>
       <c r="E95">
-        <v>0.1097099469138521</v>
+        <v>-0.07731666641708562</v>
       </c>
       <c r="F95">
-        <v>0.02394026444704435</v>
+        <v>-0.005836136014519683</v>
       </c>
       <c r="G95">
-        <v>-0.196584889685482</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.06421313855380301</v>
+      </c>
+      <c r="H95">
+        <v>-0.01039840290833531</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1839270580538643</v>
+        <v>0.1827132805268854</v>
       </c>
       <c r="C98">
-        <v>-0.04711774150488322</v>
+        <v>-0.07045696397886192</v>
       </c>
       <c r="D98">
-        <v>0.002389368418733492</v>
+        <v>0.04054830033708078</v>
       </c>
       <c r="E98">
-        <v>-0.06680386182916503</v>
+        <v>-0.05317066010761952</v>
       </c>
       <c r="F98">
-        <v>0.1385918051893397</v>
+        <v>-0.00237156694311494</v>
       </c>
       <c r="G98">
-        <v>0.3448716501298132</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.1382896132332596</v>
+      </c>
+      <c r="H98">
+        <v>-0.3768389139131484</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.005616195626078521</v>
+        <v>0.01453137890701124</v>
       </c>
       <c r="C101">
-        <v>-0.00693130228442443</v>
+        <v>0.0007171659799934254</v>
       </c>
       <c r="D101">
-        <v>-0.00304255511559185</v>
+        <v>0.008395036335636426</v>
       </c>
       <c r="E101">
-        <v>0.1159065171503961</v>
+        <v>0.004391000990854629</v>
       </c>
       <c r="F101">
-        <v>0.1303712067324851</v>
+        <v>-0.02137582377924668</v>
       </c>
       <c r="G101">
-        <v>-0.1258218720878004</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1069893069342508</v>
+      </c>
+      <c r="H101">
+        <v>0.06464386482714453</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1011344863511945</v>
+        <v>0.1026402703322322</v>
       </c>
       <c r="C102">
-        <v>-0.03251842566628143</v>
+        <v>-0.03338681676809113</v>
       </c>
       <c r="D102">
-        <v>-0.03948709349667382</v>
+        <v>0.07916593671523092</v>
       </c>
       <c r="E102">
-        <v>0.05985050965213388</v>
+        <v>-0.001424804463418542</v>
       </c>
       <c r="F102">
-        <v>-0.1252567415279819</v>
+        <v>-0.06553065732741785</v>
       </c>
       <c r="G102">
-        <v>-0.04845951202533798</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.08651464588096426</v>
+      </c>
+      <c r="H102">
+        <v>0.05715172595276135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02553297193660235</v>
+        <v>0.01936442449243128</v>
       </c>
       <c r="C103">
-        <v>-0.006668915635132661</v>
+        <v>-0.007438039625155976</v>
       </c>
       <c r="D103">
-        <v>-0.01334020126860378</v>
+        <v>0.01840907126033568</v>
       </c>
       <c r="E103">
-        <v>0.01874107815604374</v>
+        <v>0.006203803487687957</v>
       </c>
       <c r="F103">
-        <v>-0.02119948681988654</v>
+        <v>-0.01770555553451604</v>
       </c>
       <c r="G103">
-        <v>-0.02917658728315231</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.00290602573853743</v>
+      </c>
+      <c r="H103">
+        <v>0.01112401728134101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2747742380978245</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9450601494205021</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.001674559225258626</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02463568394090234</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1432309272014426</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.02626306469012134</v>
+      </c>
+      <c r="H104">
+        <v>0.02925575121958397</v>
       </c>
     </row>
   </sheetData>
